--- a/typescript/dist/ModelStub/risks.xlsx
+++ b/typescript/dist/ModelStub/risks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Severity</t>
   </si>
@@ -115,7 +115,7 @@
     <t>Are recommendations from the linked cheat sheet and referenced ASVS chapter applied?</t>
   </si>
   <si>
-    <t>missing-authentication@dc9acb35-1218-4007-b777-6affeafa42ee&gt;some-traffic@dc9acb35-1218-4007-b777-6affeafa42ee@441e289d-73f0-4a00-ae53-687be7287540</t>
+    <t>missing-authentication@some-technical-asset&gt;some-traffic@some-technical-asset@some-other-technical-asset</t>
   </si>
   <si>
     <t>Unchecked</t>
@@ -151,7 +151,7 @@
     <t>Try to apply all hardening best practices (like CIS benchmarks, OWASP recommendations, vendor recommendations, DevSec Hardening Framework, DBSAT for Oracle databases, and others).</t>
   </si>
   <si>
-    <t>missing-hardening@dc9acb35-1218-4007-b777-6affeafa42ee</t>
+    <t>missing-hardening@some-technical-asset</t>
   </si>
   <si>
     <t>Unlikely</t>
@@ -178,7 +178,7 @@
     <t>Is a Vault (Secret Storage) in place?</t>
   </si>
   <si>
-    <t>missing-vault@dc9acb35-1218-4007-b777-6affeafa42ee</t>
+    <t>missing-vault@some-technical-asset</t>
   </si>
   <si>
     <t>Development</t>
@@ -199,7 +199,7 @@
     <t>Try to avoid constructing the outgoing target URL with caller controllable values. Alternatively use a mapping (whitelist) when accessing outgoing URLs instead of creating them including caller controllable values. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
   </si>
   <si>
-    <t>server-side-request-forgery@dc9acb35-1218-4007-b777-6affeafa42ee@441e289d-73f0-4a00-ae53-687be7287540@dc9acb35-1218-4007-b777-6affeafa42ee&gt;some-traffic</t>
+    <t>server-side-request-forgery@some-technical-asset@some-other-technical-asset@some-technical-asset&gt;some-traffic</t>
   </si>
   <si>
     <t>CWE-311</t>
@@ -217,13 +217,13 @@
     <t>Apply encryption to the technical asset.</t>
   </si>
   <si>
-    <t>unencrypted-asset@441e289d-73f0-4a00-ae53-687be7287540</t>
+    <t>unencrypted-asset@some-other-technical-asset</t>
   </si>
   <si>
     <t>Unencrypted Technical Asset named Some Technical Asset</t>
   </si>
   <si>
-    <t>unencrypted-asset@dc9acb35-1218-4007-b777-6affeafa42ee</t>
+    <t>unencrypted-asset@some-technical-asset</t>
   </si>
   <si>
     <t>CWE-1008</t>
@@ -244,7 +244,22 @@
     <t>Is a Web Application Firewall (WAF) in place?</t>
   </si>
   <si>
-    <t>missing-waf@441e289d-73f0-4a00-ae53-687be7287540</t>
+    <t>missing-waf@some-other-technical-asset</t>
+  </si>
+  <si>
+    <t>Mixed Targets on Shared Runtime</t>
+  </si>
+  <si>
+    <t>Mixed Targets on Shared Runtime named Some Shared Runtime might enable attackers moving from one less valuable target to a more valuable one</t>
+  </si>
+  <si>
+    <t>Runtime Separation</t>
+  </si>
+  <si>
+    <t>Use separate runtime environments for running different target components or apply similar separation styles to prevent load- or breach-related problems originating from one more attacker-facing asset impacts also the other more critical rated backend/datastore assets.</t>
+  </si>
+  <si>
+    <t>mixed-targets-on-shared-runtime@some-shared-runtime</t>
   </si>
 </sst>
 </file>
@@ -1242,6 +1257,60 @@
       <c r="S8" s="18"/>
       <c r="T8" s="17"/>
     </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="17"/>
+    </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>
   <headerFooter>
